--- a/v 2.0/Reference material/budget.xlsx
+++ b/v 2.0/Reference material/budget.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,6 +614,162 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>sjk111</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
